--- a/data_impute_project/combinations/fish/combination_1_ABCD.xlsx
+++ b/data_impute_project/combinations/fish/combination_1_ABCD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,666 +436,901 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>35 B2Op</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-27.73</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>6.02</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-0.64</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-13.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>36 B3Pop</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-25.07</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>6.17</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-1.66</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-11.68</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>37 B4Pop</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-22.41</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>5.38</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-1.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-12.01</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>38 B5C</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-27.37</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>10.72</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-4.46</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-15.07</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1 D1V</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-16.06</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>13.68</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-1.82</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-13.2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3 D3V</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-16.21</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>15.89</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-1.3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-3.76</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4 D4V</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-14.74</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>15.57</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-0.21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-3.9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5 D5V</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-15.29</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>11.99</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-0.32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>40 D2V</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-15.64</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>12.24</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>2.18</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-13.38</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>42 D4V</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-15.94</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>17.37</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-0.38</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-3.99</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6 FB1C</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-15.88</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>12.23</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1.45</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-7.1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7 FB2C</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-11.66</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>10.85</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>3.53</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-6.73</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8 FB3C</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-15.72</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>15.28</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>3.37</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-11.03</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>9 FB4C</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>-11.5</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>11.69</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>3.45</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-13.1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>44 FB1C</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>-17.22</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>12.32</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-3.58</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-10.96</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>45 FB2C</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>-13.01</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>9.02</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.54</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>46 FB3Op</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>-16.21</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>10.35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-0.83</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>47 FB4Pop</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>-23.95</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-7.2</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-9.35</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>48 FB5Pop</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>-13.45</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>11.3</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-0.65</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-8.73</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10 H1C</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>-18.62</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>13.38</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-4.25</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-9.01</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11 H2C</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>-25.66</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>10.77</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-7.53</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-11.54</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12 H3C</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>-24.66</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>10.25</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-7.2</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>13 H4C</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>-22.23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>11.63</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-6.77</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14 H5C</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>-16.32</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>14.43</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-3.28</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-6.51</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>49 H1C</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>-22.4</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>11.52</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>-6.23</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-12.49</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>51 H3C</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>-22.38</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>5.4</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-6.89</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-12.8</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>52 H4C</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>-20.16</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>9.65</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-3.2</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>-12.49</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>53 H5De</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>-24.31</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>8.02</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-5.51</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-13.82</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>54 HH1De</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>-13.47</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>11.52</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2.12</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-5.07</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>58 HH5De</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>-14.31</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>7.62</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-1.84</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-7.45</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>59 SF1C</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>-15.95</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>13.29</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1.37</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-4.86</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>60 SF2C</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>-15.93</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>12.91</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>-0.03</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>-10.23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>61 SF3C</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>-14.9</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>11.99</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>4.1</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>-11.61</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>63 SF5C</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>-16.09</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>14.98</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>4.06</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>-15.06</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>64 SLOp</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
         <v>-24.79</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>6.34</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>-3.23</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-14.49</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>65 SOC</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>-14.9</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>10.7</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>2.77</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-14.74</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>66 ST1Rü</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>-13.52</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>12.8</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>3.29</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>-12.39</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>67 ST2Rü</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>-14.27</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>12.91</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>3.73</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>-7.58</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>68 ST3Rü</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>-13.73</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>13.52</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>4.8</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-6.27</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>69 ST4Rü</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>-14.93</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>12.89</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.27</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>-5.33</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>67 ST5Rü</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>-13.72</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>13.18</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>-0.91</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-6.41</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15 Z1C</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>-22.67</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>9.67</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>-7.93</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>-10.22</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>16 Z2C</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>-19.96</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>10.29</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>-6.67</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>-10.41</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>17 Z3C</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
         <v>-20.99</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>11.48</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>-6.46</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>-14.55</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>18 Z4C</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>-22.94</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>10.58</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>-6.43</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>-13.94</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>19 Z5C</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>-22.21</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>10.17</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>-7.07</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>-9.58</v>
       </c>
     </row>
